--- a/57. Princess_Bride_Integer_Programming.xlsx
+++ b/57. Princess_Bride_Integer_Programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F0613-F451-42BB-8AB1-CC712203E129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E91231C-AB2F-40AB-ADB6-75D08704AD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D8BD9C2-E3BB-4E70-92BD-EB9DE1EF15D3}"/>
   </bookViews>
